--- a/sytemeventtable/Alarm Reasons.xlsx
+++ b/sytemeventtable/Alarm Reasons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bk226_Team-Rocket\sytemeventtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D75412-077E-41BB-BA4D-82CFE10F262C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3482B3-4BDC-454D-8ED9-08FABDC89905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Component</t>
   </si>
@@ -125,13 +125,19 @@
   </si>
   <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>Input Pump Malfunction</t>
+  </si>
+  <si>
+    <t>Pump Overload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -141,6 +147,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,9 +182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,7 +407,9 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -417,7 +440,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -434,8 +457,8 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -451,7 +474,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -553,8 +576,8 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
@@ -562,5 +585,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>